--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gip-Dpp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gip-Dpp4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Dpp4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4384066666666667</v>
+        <v>0.01853566666666667</v>
       </c>
       <c r="H2">
-        <v>1.31522</v>
+        <v>0.055607</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.04056456431044909</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04056456431044909</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8549639999999999</v>
+        <v>4.500364333333334</v>
       </c>
       <c r="N2">
-        <v>2.564892</v>
+        <v>13.501093</v>
       </c>
       <c r="O2">
-        <v>0.08981373737420426</v>
+        <v>0.7110918985538353</v>
       </c>
       <c r="P2">
-        <v>0.08981373737420426</v>
+        <v>0.7110918985538353</v>
       </c>
       <c r="Q2">
-        <v>0.37482191736</v>
+        <v>0.08341725316122223</v>
       </c>
       <c r="R2">
-        <v>3.37339725624</v>
+        <v>0.750755278451</v>
       </c>
       <c r="S2">
-        <v>0.08981373737420426</v>
+        <v>0.02884513304952639</v>
       </c>
       <c r="T2">
-        <v>0.08981373737420426</v>
+        <v>0.02884513304952639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4384066666666667</v>
+        <v>0.01853566666666667</v>
       </c>
       <c r="H3">
-        <v>1.31522</v>
+        <v>0.055607</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.04056456431044909</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.04056456431044909</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.500364333333334</v>
+        <v>0.116902</v>
       </c>
       <c r="N3">
-        <v>13.501093</v>
+        <v>0.350706</v>
       </c>
       <c r="O3">
-        <v>0.472762058194539</v>
+        <v>0.0184714078611429</v>
       </c>
       <c r="P3">
-        <v>0.472762058194539</v>
+        <v>0.01847140786114289</v>
       </c>
       <c r="Q3">
-        <v>1.972989726162222</v>
+        <v>0.002166856504666667</v>
       </c>
       <c r="R3">
-        <v>17.75690753546</v>
+        <v>0.019501708542</v>
       </c>
       <c r="S3">
-        <v>0.472762058194539</v>
+        <v>0.000749284612087866</v>
       </c>
       <c r="T3">
-        <v>0.472762058194539</v>
+        <v>0.0007492846120878658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4384066666666667</v>
+        <v>0.01853566666666667</v>
       </c>
       <c r="H4">
-        <v>1.31522</v>
+        <v>0.055607</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.04056456431044909</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.04056456431044909</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +679,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09919133333333334</v>
+        <v>1.711542</v>
       </c>
       <c r="N4">
-        <v>0.297574</v>
+        <v>5.134626</v>
       </c>
       <c r="O4">
-        <v>0.0104200227866871</v>
+        <v>0.2704366935850219</v>
       </c>
       <c r="P4">
-        <v>0.0104200227866871</v>
+        <v>0.2704366935850219</v>
       </c>
       <c r="Q4">
-        <v>0.04348614180888889</v>
+        <v>0.031724571998</v>
       </c>
       <c r="R4">
-        <v>0.39137527628</v>
+        <v>0.285521147982</v>
       </c>
       <c r="S4">
-        <v>0.0104200227866871</v>
+        <v>0.01097014664883484</v>
       </c>
       <c r="T4">
-        <v>0.0104200227866871</v>
+        <v>0.01097014664883484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>1.31522</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9594354356895509</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9594354356895509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.064781333333333</v>
+        <v>4.500364333333334</v>
       </c>
       <c r="N5">
-        <v>12.194344</v>
+        <v>13.501093</v>
       </c>
       <c r="O5">
-        <v>0.4270041816445696</v>
+        <v>0.7110918985538353</v>
       </c>
       <c r="P5">
-        <v>0.4270041816445695</v>
+        <v>0.7110918985538353</v>
       </c>
       <c r="Q5">
-        <v>1.782027235075555</v>
+        <v>1.972989726162222</v>
       </c>
       <c r="R5">
-        <v>16.03824511568</v>
+        <v>17.75690753546</v>
       </c>
       <c r="S5">
-        <v>0.4270041816445696</v>
+        <v>0.6822467655043088</v>
       </c>
       <c r="T5">
-        <v>0.4270041816445695</v>
+        <v>0.6822467655043088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4384066666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.31522</v>
+      </c>
+      <c r="I6">
+        <v>0.9594354356895509</v>
+      </c>
+      <c r="J6">
+        <v>0.9594354356895509</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.116902</v>
+      </c>
+      <c r="N6">
+        <v>0.350706</v>
+      </c>
+      <c r="O6">
+        <v>0.0184714078611429</v>
+      </c>
+      <c r="P6">
+        <v>0.01847140786114289</v>
+      </c>
+      <c r="Q6">
+        <v>0.05125061614666666</v>
+      </c>
+      <c r="R6">
+        <v>0.46125554532</v>
+      </c>
+      <c r="S6">
+        <v>0.01772212324905503</v>
+      </c>
+      <c r="T6">
+        <v>0.01772212324905503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4384066666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.31522</v>
+      </c>
+      <c r="I7">
+        <v>0.9594354356895509</v>
+      </c>
+      <c r="J7">
+        <v>0.9594354356895509</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.711542</v>
+      </c>
+      <c r="N7">
+        <v>5.134626</v>
+      </c>
+      <c r="O7">
+        <v>0.2704366935850219</v>
+      </c>
+      <c r="P7">
+        <v>0.2704366935850219</v>
+      </c>
+      <c r="Q7">
+        <v>0.7503514230799999</v>
+      </c>
+      <c r="R7">
+        <v>6.75316280772</v>
+      </c>
+      <c r="S7">
+        <v>0.2594665469361871</v>
+      </c>
+      <c r="T7">
+        <v>0.2594665469361871</v>
       </c>
     </row>
   </sheetData>
